--- a/Sample_Dump.xlsx
+++ b/Sample_Dump.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzhang77\Documents\GitHub\Random-Data-Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8CB2BF-FF2E-404B-979F-FD8FB7983264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33CB1DF-94FE-46BD-98F6-5EF6321EF3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2025" windowWidth="23505" windowHeight="11310" xr2:uid="{65D625CF-DD65-4D19-8963-62DEED7B0248}"/>
+    <workbookView xWindow="29130" yWindow="1350" windowWidth="18900" windowHeight="11055" xr2:uid="{65D625CF-DD65-4D19-8963-62DEED7B0248}"/>
   </bookViews>
   <sheets>
     <sheet name="ORD" sheetId="1" r:id="rId1"/>
+    <sheet name="UGN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Start Date</t>
   </si>
@@ -62,13 +63,31 @@
   <si>
     <t># Days Sea &lt; 990 mb</t>
   </si>
+  <si>
+    <t># Days Spd &gt; 30 mph</t>
+  </si>
+  <si>
+    <t># Days Sea &lt; 995 mb</t>
+  </si>
+  <si>
+    <t># Days Ice &gt; 50%</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t># Days Have Ice &gt; 0</t>
+  </si>
+  <si>
+    <t># Days Have Ice Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752BB6EA-AB94-4130-94AE-77CEB94D276C}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,13 +446,16 @@
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,28 +466,43 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>21490</v>
       </c>
@@ -475,29 +512,44 @@
       <c r="C2">
         <v>913</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>43</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>26</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>16</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>22403</v>
       </c>
@@ -508,28 +560,43 @@
         <v>4910</v>
       </c>
       <c r="D3">
+        <v>199</v>
+      </c>
+      <c r="E3">
+        <v>104</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>101</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>97</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>37</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>27313</v>
       </c>
@@ -540,28 +607,43 @@
         <v>6778</v>
       </c>
       <c r="D4">
+        <v>3617</v>
+      </c>
+      <c r="E4">
+        <v>2195</v>
+      </c>
+      <c r="F4">
+        <v>156</v>
+      </c>
+      <c r="G4">
         <v>338</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>124</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>27</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>34091</v>
       </c>
@@ -572,28 +654,43 @@
         <v>1431</v>
       </c>
       <c r="D5">
+        <v>767</v>
+      </c>
+      <c r="E5">
+        <v>506</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
         <v>55</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>35522</v>
       </c>
@@ -604,28 +701,43 @@
         <v>1117</v>
       </c>
       <c r="D6">
+        <v>618</v>
+      </c>
+      <c r="E6">
+        <v>417</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>53</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>14</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36639</v>
       </c>
@@ -636,28 +748,43 @@
         <v>734</v>
       </c>
       <c r="D7">
+        <v>403</v>
+      </c>
+      <c r="E7">
+        <v>237</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37373</v>
       </c>
@@ -668,28 +795,43 @@
         <v>710</v>
       </c>
       <c r="D8">
+        <v>377</v>
+      </c>
+      <c r="E8">
+        <v>241</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>8</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>38083</v>
       </c>
@@ -700,28 +842,43 @@
         <v>369</v>
       </c>
       <c r="D9">
+        <v>204</v>
+      </c>
+      <c r="E9">
+        <v>147</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>38452</v>
       </c>
@@ -732,28 +889,43 @@
         <v>382</v>
       </c>
       <c r="D10">
+        <v>216</v>
+      </c>
+      <c r="E10">
+        <v>137</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38834</v>
       </c>
@@ -764,28 +936,43 @@
         <v>376</v>
       </c>
       <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39210</v>
       </c>
@@ -796,28 +983,43 @@
         <v>482</v>
       </c>
       <c r="D12">
+        <v>223</v>
+      </c>
+      <c r="E12">
+        <v>126</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>7</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39692</v>
       </c>
@@ -828,28 +1030,43 @@
         <v>268</v>
       </c>
       <c r="D13">
+        <v>195</v>
+      </c>
+      <c r="E13">
+        <v>143</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>21</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39960</v>
       </c>
@@ -860,28 +1077,43 @@
         <v>327</v>
       </c>
       <c r="D14">
+        <v>161</v>
+      </c>
+      <c r="E14">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>4</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40287</v>
       </c>
@@ -892,28 +1124,43 @@
         <v>756</v>
       </c>
       <c r="D15">
+        <v>423</v>
+      </c>
+      <c r="E15">
+        <v>252</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>7</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>14</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41043</v>
       </c>
@@ -924,28 +1171,43 @@
         <v>713</v>
       </c>
       <c r="D16">
+        <v>382</v>
+      </c>
+      <c r="E16">
+        <v>242</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>37</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41756</v>
       </c>
@@ -956,28 +1218,43 @@
         <v>1082</v>
       </c>
       <c r="D17">
+        <v>584</v>
+      </c>
+      <c r="E17">
+        <v>435</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+      <c r="G17">
         <v>54</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>10</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42838</v>
       </c>
@@ -988,24 +1265,39 @@
         <v>628</v>
       </c>
       <c r="D18">
+        <v>248</v>
+      </c>
+      <c r="E18">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>37</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>13</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
     </row>
@@ -1013,4 +1305,783 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA16CF44-6E81-4B22-A70C-4508CF67E28B}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="15" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>32619</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34090</v>
+      </c>
+      <c r="C2">
+        <v>1470</v>
+      </c>
+      <c r="D2">
+        <v>808</v>
+      </c>
+      <c r="E2">
+        <v>535</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>34091</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35521</v>
+      </c>
+      <c r="C3">
+        <v>1431</v>
+      </c>
+      <c r="D3">
+        <v>767</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>35522</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36638</v>
+      </c>
+      <c r="C4">
+        <v>1117</v>
+      </c>
+      <c r="D4">
+        <v>618</v>
+      </c>
+      <c r="E4">
+        <v>417</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>36639</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37372</v>
+      </c>
+      <c r="C5">
+        <v>734</v>
+      </c>
+      <c r="D5">
+        <v>403</v>
+      </c>
+      <c r="E5">
+        <v>237</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>37373</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38082</v>
+      </c>
+      <c r="C6">
+        <v>710</v>
+      </c>
+      <c r="D6">
+        <v>377</v>
+      </c>
+      <c r="E6">
+        <v>241</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>38083</v>
+      </c>
+      <c r="B7" s="1">
+        <v>38451</v>
+      </c>
+      <c r="C7">
+        <v>369</v>
+      </c>
+      <c r="D7">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>38452</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38833</v>
+      </c>
+      <c r="C8">
+        <v>382</v>
+      </c>
+      <c r="D8">
+        <v>216</v>
+      </c>
+      <c r="E8">
+        <v>137</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>38834</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39209</v>
+      </c>
+      <c r="C9">
+        <v>376</v>
+      </c>
+      <c r="D9">
+        <v>210</v>
+      </c>
+      <c r="E9">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>39210</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39691</v>
+      </c>
+      <c r="C10">
+        <v>482</v>
+      </c>
+      <c r="D10">
+        <v>223</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39692</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39959</v>
+      </c>
+      <c r="C11">
+        <v>268</v>
+      </c>
+      <c r="D11">
+        <v>195</v>
+      </c>
+      <c r="E11">
+        <v>143</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>39960</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40286</v>
+      </c>
+      <c r="C12">
+        <v>327</v>
+      </c>
+      <c r="D12">
+        <v>161</v>
+      </c>
+      <c r="E12">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40287</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41042</v>
+      </c>
+      <c r="C13">
+        <v>756</v>
+      </c>
+      <c r="D13">
+        <v>423</v>
+      </c>
+      <c r="E13">
+        <v>252</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41043</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41755</v>
+      </c>
+      <c r="C14">
+        <v>713</v>
+      </c>
+      <c r="D14">
+        <v>382</v>
+      </c>
+      <c r="E14">
+        <v>242</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42837</v>
+      </c>
+      <c r="C15">
+        <v>1082</v>
+      </c>
+      <c r="D15">
+        <v>584</v>
+      </c>
+      <c r="E15">
+        <v>435</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42838</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43465</v>
+      </c>
+      <c r="C16">
+        <v>628</v>
+      </c>
+      <c r="D16">
+        <v>248</v>
+      </c>
+      <c r="E16">
+        <v>121</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>